--- a/my_helper/my_helper/Служебки/covid/Сорокину В.Л..xlsx
+++ b/my_helper/my_helper/Служебки/covid/Сорокину В.Л..xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>ООО " Вертикаль"</t>
   </si>
@@ -648,7 +648,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">K3</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -663,7 +663,7 @@
       <c r="I3" s="4"/>
       <c r="K3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -672,7 +672,7 @@
       </c>
       <c r="B4" s="5">
         <f ca="1">B3</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -692,7 +692,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">B4</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">B5</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -732,7 +732,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">B6</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">B4</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -772,7 +772,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">B7</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="B10" s="5">
         <f ca="1">B9</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -812,7 +812,7 @@
       </c>
       <c r="B11" s="5">
         <f ca="1">B10</f>
-        <v>44500</v>
+        <v>44494</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -850,7 +850,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -858,7 +858,7 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>44486</v>
+        <v>44491</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>44487</v>
+        <v>44492</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>44488</v>
+        <v>44493</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -966,18 +966,10 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>44489</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="4"/>
@@ -985,18 +977,10 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>44490</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="13"/>
       <c r="F7" s="12"/>
       <c r="G7" s="4"/>
@@ -1004,18 +988,10 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44491</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="13"/>
       <c r="F8" s="12"/>
       <c r="G8" s="4"/>
@@ -1023,18 +999,10 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44492</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="4"/>
@@ -1042,18 +1010,10 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>44493</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="4"/>
@@ -1061,18 +1021,10 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44494</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="4"/>
@@ -1080,18 +1032,10 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>44495</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="4"/>
@@ -1099,18 +1043,10 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
-        <v>44496</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="4"/>
@@ -1118,18 +1054,10 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5">
-        <v>44497</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="4"/>
@@ -1137,18 +1065,10 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>44498</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="4"/>
@@ -1156,18 +1076,10 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5">
-        <v>44499</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="4"/>

--- a/my_helper/my_helper/Служебки/covid/Сорокину В.Л..xlsx
+++ b/my_helper/my_helper/Служебки/covid/Сорокину В.Л..xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
   <si>
     <t>ООО " Вертикаль"</t>
   </si>
@@ -648,7 +648,7 @@
       </c>
       <c r="B3" s="5">
         <f ca="1">K3</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -663,7 +663,7 @@
       <c r="I3" s="4"/>
       <c r="K3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -672,7 +672,7 @@
       </c>
       <c r="B4" s="5">
         <f ca="1">B3</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -692,7 +692,7 @@
       </c>
       <c r="B5" s="5">
         <f ca="1">B4</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="B6" s="5">
         <f ca="1">B5</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -732,7 +732,7 @@
       </c>
       <c r="B7" s="5">
         <f ca="1">B6</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="B8" s="5">
         <f ca="1">B4</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -772,7 +772,7 @@
       </c>
       <c r="B9" s="5">
         <f ca="1">B7</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="B10" s="5">
         <f ca="1">B9</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -812,7 +812,7 @@
       </c>
       <c r="B11" s="5">
         <f ca="1">B10</f>
-        <v>44494</v>
+        <v>44500</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -850,7 +850,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -858,7 +858,7 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>44491</v>
+        <v>44486</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>44492</v>
+        <v>44487</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>44493</v>
+        <v>44488</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -966,10 +966,18 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44489</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="4"/>
@@ -977,10 +985,18 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44490</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="12"/>
       <c r="G7" s="4"/>
@@ -988,10 +1004,18 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44491</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="12"/>
       <c r="G8" s="4"/>
@@ -999,10 +1023,18 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44492</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="12"/>
       <c r="G9" s="4"/>
@@ -1010,10 +1042,18 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44493</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
       <c r="G10" s="4"/>
@@ -1021,10 +1061,18 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44494</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
       <c r="G11" s="4"/>
@@ -1032,10 +1080,18 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44495</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
       <c r="G12" s="4"/>
@@ -1043,10 +1099,18 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44496</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="4"/>
@@ -1054,10 +1118,18 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44497</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
       <c r="G14" s="4"/>
@@ -1065,10 +1137,18 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44498</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
       <c r="G15" s="4"/>
@@ -1076,10 +1156,18 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44499</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
       <c r="G16" s="4"/>
